--- a/validation/launched_vs_planned_by_rocket_EO.xlsx
+++ b/validation/launched_vs_planned_by_rocket_EO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoughton\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A2AC2-D8B9-4920-9FC8-115025867041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48880666-D489-7541-AD76-4F9788DB47A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1388EC03-9651-4090-996C-2A234F3A1851}"/>
+    <workbookView xWindow="760" yWindow="880" windowWidth="30780" windowHeight="26600" xr2:uid="{1388EC03-9651-4090-996C-2A234F3A1851}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Stage</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Satellites</t>
   </si>
   <si>
-    <t>Planned</t>
-  </si>
-  <si>
     <t>Source:https://planet4589.org/space/con/conlist.html</t>
   </si>
   <si>
@@ -131,6 +128,12 @@
   </si>
   <si>
     <t>Overall Total</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -139,7 +142,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -348,11 +351,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,20 +366,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -400,21 +396,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -436,26 +423,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,124 +774,123 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5546875" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <f>3236</f>
         <v>3236</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="3">
         <f>SUM(C9:E9)</f>
         <v>71</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>A2/B2</f>
         <v>45.577464788732392</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="3">
-        <v>720</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="E3" s="11"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="2">
+        <v>648</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="24" t="s">
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="31"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
@@ -900,241 +898,241 @@
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="20">
         <v>0</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="20">
         <v>0</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="20">
         <v>13</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="20">
         <v>2</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="20">
         <v>4</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="20">
         <v>100</v>
       </c>
-      <c r="J8" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="8">
+      <c r="J8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="7">
         <f>SUM(C8,F8,H8,I8)</f>
         <v>117</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f>SUM(C8:J8)</f>
         <v>119</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="22">
         <f>L8/M8*100</f>
         <v>98.319327731092429</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="24">
+        <v>18</v>
+      </c>
+      <c r="D9" s="24">
         <v>15</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="30">
-        <v>18</v>
-      </c>
-      <c r="D9" s="30">
-        <v>15</v>
-      </c>
-      <c r="E9" s="30">
+      <c r="E9" s="24">
         <v>38</v>
       </c>
-      <c r="F9" s="31">
-        <v>2</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33">
-        <f>H17/(H16/H8)</f>
-        <v>7.5</v>
-      </c>
-      <c r="I9" s="33">
-        <f>I17/(I16/I8)</f>
-        <v>5.230386052303861</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="8">
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="7">
         <f>SUM(C16,F16,H16,I16)</f>
         <v>4579</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f>SUM(C16:J16)</f>
         <v>4651</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="22">
         <f t="shared" ref="N9:N17" si="0">L9/M9*100</f>
         <v>98.451945818103638</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
       <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8">
+        <v>19</v>
+      </c>
+      <c r="C11" s="7">
         <f>SUM(C8:C9)</f>
         <v>18</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:J11" si="1">SUM(D8:D9)</f>
         <v>15</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="G11" s="8">
+        <v>13</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>11.5</v>
-      </c>
-      <c r="I11" s="8">
+        <v>4</v>
+      </c>
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>105.23038605230386</v>
-      </c>
-      <c r="J11" s="8">
+        <v>100</v>
+      </c>
+      <c r="J11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="24" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>9</v>
@@ -1142,312 +1140,313 @@
       <c r="I15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
       <c r="L15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="20">
         <v>0</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="20">
         <v>0</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="20">
         <v>0</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="20">
         <v>420</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <v>72</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="20">
         <v>144</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="20">
         <v>4015</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="7">
+        <f>SUM(C9,F9,H9,I9)</f>
         <v>18</v>
       </c>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8">
-        <f>SUM(C9,F9,H9,I9)</f>
-        <v>32.730386052303864</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f>SUM(C9:J9)</f>
-        <v>85.730386052303857</v>
-      </c>
-      <c r="N16" s="28">
+        <v>71</v>
+      </c>
+      <c r="N16" s="22">
         <f t="shared" si="0"/>
-        <v>38.178279090374275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="29" t="s">
+        <v>25.352112676056336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="27">
         <f>$C$2*C9</f>
         <v>820.3943661971831</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="27">
         <f>$C$2*D9</f>
         <v>683.66197183098586</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="27">
         <f>$C$2*E9</f>
         <v>1731.9436619718308</v>
       </c>
-      <c r="F17" s="30">
-        <f>E2-SUM(F16:H16)</f>
-        <v>84</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32">
-        <v>270</v>
-      </c>
-      <c r="I17" s="36">
+      <c r="F17" s="34">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>12</v>
+      </c>
+      <c r="I17" s="28">
         <v>210</v>
       </c>
-      <c r="J17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="8">
+      <c r="J17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="7">
         <f>SUM(C17,F17,H17,I17)</f>
-        <v>1384.394366197183</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" ref="M9:M17" si="2">SUM(C17:J17)</f>
-        <v>3800</v>
-      </c>
-      <c r="N17" s="28">
+        <v>1042.394366197183</v>
+      </c>
+      <c r="M17" s="7">
+        <f t="shared" ref="M17" si="2">SUM(C17:J17)</f>
+        <v>3458</v>
+      </c>
+      <c r="N17" s="22">
         <f t="shared" si="0"/>
-        <v>36.431430689399555</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+        <v>30.144429329010496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
       <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8">
+        <v>19</v>
+      </c>
+      <c r="C19" s="7">
         <f>SUM(C16:C17)</f>
         <v>820.3943661971831</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <f t="shared" ref="D19:J19" si="3">SUM(D16:D17)</f>
         <v>683.66197183098586</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <f t="shared" si="3"/>
         <v>1731.9436619718308</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="3"/>
-        <v>504</v>
-      </c>
-      <c r="G19" s="8">
+        <v>420</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="7">
         <f t="shared" si="3"/>
-        <v>414</v>
-      </c>
-      <c r="I19" s="8">
+        <v>156</v>
+      </c>
+      <c r="I19" s="7">
         <f t="shared" si="3"/>
         <v>4225</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="13" t="s">
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="G22" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="7">
         <f>SUM(C8:C9)</f>
         <v>18</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <f>SUM(D8:E9)</f>
         <v>53</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <f>SUM(F8:F9,H8:H9)</f>
-        <v>26.5</v>
-      </c>
-      <c r="F23" s="8">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7">
         <f>SUM(G8:G9)</f>
         <v>2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <f>SUM(I8:J9)</f>
-        <v>105.23038605230386</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="37">
+        <v>100</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="29">
         <f>SUM(C23,E23,G23)</f>
-        <v>149.73038605230386</v>
-      </c>
-      <c r="M23" s="37">
+        <v>135</v>
+      </c>
+      <c r="M23" s="29">
         <f>SUM(C23:H23)</f>
-        <v>204.73038605230386</v>
-      </c>
-      <c r="N23" s="28">
+        <v>190</v>
+      </c>
+      <c r="N23" s="22">
         <f>L23/M23*100</f>
-        <v>73.135399653889792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6"/>
-      <c r="B24" s="18" t="s">
+        <v>71.05263157894737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="16">
         <f>SUM(C16:C17)</f>
         <v>820.3943661971831</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="16">
         <f>SUM(D16:E17)</f>
         <v>2415.6056338028166</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="16">
         <f>SUM(F16:F17,H16:H17)</f>
-        <v>918</v>
-      </c>
-      <c r="F24" s="19">
+        <v>576</v>
+      </c>
+      <c r="F24" s="16">
         <f>SUM(G16:G17)</f>
         <v>72</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="16">
         <f>SUM(I16:J17)</f>
         <v>4225</v>
       </c>
-      <c r="H24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="37">
+      <c r="H24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="29">
         <f>SUM(C24,E24,G24)</f>
-        <v>5963.3943661971825</v>
-      </c>
-      <c r="M24" s="37">
+        <v>5621.3943661971825</v>
+      </c>
+      <c r="M24" s="29">
         <f>SUM(C24:H24)</f>
-        <v>8451</v>
-      </c>
-      <c r="N24" s="28">
+        <v>8109</v>
+      </c>
+      <c r="N24" s="22">
         <f>L24/M24*100</f>
-        <v>70.564363580608003</v>
+        <v>69.322904996882258</v>
       </c>
     </row>
   </sheetData>
@@ -1468,7 +1467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/validation/launched_vs_planned_by_rocket_EO.xlsx
+++ b/validation/launched_vs_planned_by_rocket_EO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48880666-D489-7541-AD76-4F9788DB47A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADCD394-98D0-5C4C-BFB2-B2E1F5EDD4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="880" windowWidth="30780" windowHeight="26600" xr2:uid="{1388EC03-9651-4090-996C-2A234F3A1851}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="30780" windowHeight="26600" xr2:uid="{1388EC03-9651-4090-996C-2A234F3A1851}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="32">
   <si>
     <t>Stage</t>
   </si>
@@ -131,9 +131,6 @@
   </si>
   <si>
     <t>Remaining</t>
-  </si>
-  <si>
-    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -351,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +435,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,12 +448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -774,7 +768,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -842,10 +836,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -875,8 +869,8 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="18" t="s">
         <v>5</v>
       </c>
@@ -973,17 +967,17 @@
       <c r="E9" s="24">
         <v>38</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="25">
         <v>0</v>
       </c>
       <c r="G9" s="25">
         <v>0</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>32</v>
+      <c r="H9" s="30">
+        <v>1</v>
+      </c>
+      <c r="I9" s="30">
+        <v>4</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>17</v>
@@ -1042,11 +1036,11 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="1"/>
@@ -1081,10 +1075,10 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1117,8 +1111,8 @@
       <c r="N14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="18" t="s">
         <v>5</v>
       </c>
@@ -1188,15 +1182,15 @@
       <c r="K16" s="5"/>
       <c r="L16" s="7">
         <f>SUM(C9,F9,H9,I9)</f>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
         <f>SUM(C9:J9)</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="N16" s="22">
         <f t="shared" si="0"/>
-        <v>25.352112676056336</v>
+        <v>30.263157894736842</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1218,7 +1212,7 @@
         <f>$C$2*E9</f>
         <v>1731.9436619718308</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="25">
         <v>0</v>
       </c>
       <c r="G17" s="25">
@@ -1376,7 +1370,7 @@
       </c>
       <c r="E23" s="7">
         <f>SUM(F8:F9,H8:H9)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F23" s="7">
         <f>SUM(G8:G9)</f>
@@ -1384,7 +1378,7 @@
       </c>
       <c r="G23" s="7">
         <f>SUM(I8:J9)</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>17</v>
@@ -1394,15 +1388,15 @@
       <c r="K23" s="5"/>
       <c r="L23" s="29">
         <f>SUM(C23,E23,G23)</f>
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M23" s="29">
         <f>SUM(C23:H23)</f>
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N23" s="22">
         <f>L23/M23*100</f>
-        <v>71.05263157894737</v>
+        <v>71.794871794871796</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">

--- a/validation/launched_vs_planned_by_rocket_EO.xlsx
+++ b/validation/launched_vs_planned_by_rocket_EO.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/osoro/GitHub/saleos/validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bosoro/Documents/GitHub/saleos/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA24BEC9-7D46-B944-98C0-85BFA4933564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2058075A-461A-9C42-BA72-B35950CD34A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32860" yWindow="3100" windowWidth="30780" windowHeight="26600" xr2:uid="{1388EC03-9651-4090-996C-2A234F3A1851}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{1388EC03-9651-4090-996C-2A234F3A1851}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1453,16 +1452,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49E7422-9FC8-EB47-AA79-E5344CDF6B2F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>